--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42981,6 +42981,41 @@
         <v>168100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43016,6 +43016,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>17101000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43051,6 +43051,41 @@
         <v>17101000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>6158000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43086,6 +43086,41 @@
         <v>6158000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2424300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43121,6 +43121,41 @@
         <v>2424300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1095300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43156,6 +43156,41 @@
         <v>1095300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>606400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43191,6 +43191,41 @@
         <v>606400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3756100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43226,6 +43226,41 @@
         <v>3756100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>8207800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43261,6 +43261,41 @@
         <v>8207800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3601700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43296,6 +43296,41 @@
         <v>3601700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>972000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43331,6 +43331,41 @@
         <v>972000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>497500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43366,6 +43366,76 @@
         <v>497500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1501100</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>8666700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43436,6 +43436,76 @@
         <v>8666700</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>588000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>660700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43506,6 +43506,41 @@
         <v>660700</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>15160600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43541,6 +43541,41 @@
         <v>15160600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>802900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43576,6 +43576,41 @@
         <v>802900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>13183000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43611,6 +43611,41 @@
         <v>13183000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>9988300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,76 @@
         <v>9988300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>5082500</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>676700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43716,6 +43716,41 @@
         <v>676700</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>12248900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,41 @@
         <v>12248900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>5944300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2531"/>
+  <dimension ref="A1:I2532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88971,6 +88971,41 @@
         <v>5944300</v>
       </c>
     </row>
+    <row r="2532">
+      <c r="A2532" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2532" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2532" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2532" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2532" t="n">
+        <v>15616300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2532"/>
+  <dimension ref="A1:I2533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89006,6 +89006,41 @@
         <v>15616300</v>
       </c>
     </row>
+    <row r="2533">
+      <c r="A2533" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2533" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2533" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2533" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2533" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2533" t="n">
+        <v>3005000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2533"/>
+  <dimension ref="A1:I2534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89041,6 +89041,41 @@
         <v>3005000</v>
       </c>
     </row>
+    <row r="2534">
+      <c r="A2534" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2534" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2534" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2534" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2534" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2534" t="n">
+        <v>3627900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2534"/>
+  <dimension ref="A1:I2535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89076,6 +89076,41 @@
         <v>3627900</v>
       </c>
     </row>
+    <row r="2535">
+      <c r="A2535" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2535" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2535" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2535" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2535" t="n">
+        <v>3808400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2535"/>
+  <dimension ref="A1:I2536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89111,6 +89111,41 @@
         <v>3808400</v>
       </c>
     </row>
+    <row r="2536">
+      <c r="A2536" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2536" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2536" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2536" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2536" t="n">
+        <v>5653500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2536"/>
+  <dimension ref="A1:I2537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89146,6 +89146,41 @@
         <v>5653500</v>
       </c>
     </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2537" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2537" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2537" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2537" t="n">
+        <v>4725600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2537"/>
+  <dimension ref="A1:I2538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89181,6 +89181,41 @@
         <v>4725600</v>
       </c>
     </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2538" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2538" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2538" t="n">
+        <v>2253900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2538"/>
+  <dimension ref="A1:I2539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89216,6 +89216,41 @@
         <v>2253900</v>
       </c>
     </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>5511300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2539"/>
+  <dimension ref="A1:I2540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89251,6 +89251,41 @@
         <v>5511300</v>
       </c>
     </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2540" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2540" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2540" t="n">
+        <v>8175700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2540"/>
+  <dimension ref="A1:I2541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89286,6 +89286,41 @@
         <v>8175700</v>
       </c>
     </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2541" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2541" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2541" t="n">
+        <v>5178100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2541"/>
+  <dimension ref="A1:I2542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89321,6 +89321,41 @@
         <v>5178100</v>
       </c>
     </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2542" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2542" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2542" t="n">
+        <v>2098000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2542"/>
+  <dimension ref="A1:I2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89356,6 +89356,41 @@
         <v>2098000</v>
       </c>
     </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2543" t="n">
+        <v>7149300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2543"/>
+  <dimension ref="A1:I2544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89391,6 +89391,41 @@
         <v>7149300</v>
       </c>
     </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2544" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2544" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2544" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2544" t="n">
+        <v>7512600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2544"/>
+  <dimension ref="A1:I2545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89426,6 +89426,41 @@
         <v>7512600</v>
       </c>
     </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2545" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2545" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2545" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2545" t="n">
+        <v>1865900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2545"/>
+  <dimension ref="A1:I2546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89461,6 +89461,41 @@
         <v>1865900</v>
       </c>
     </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2546" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2546" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2546" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2546" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2546" t="n">
+        <v>8092000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2546"/>
+  <dimension ref="A1:I2547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89496,6 +89496,41 @@
         <v>8092000</v>
       </c>
     </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2547" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2547" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2547" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2547" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2547" t="n">
+        <v>2596400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2547"/>
+  <dimension ref="A1:I2548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89531,6 +89531,41 @@
         <v>2596400</v>
       </c>
     </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2548" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2548" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2548" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2548" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2548" t="n">
+        <v>1635700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2548"/>
+  <dimension ref="A1:I2549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89566,6 +89566,41 @@
         <v>1635700</v>
       </c>
     </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2549" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2549" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2549" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2549" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2549" t="n">
+        <v>1529600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2549"/>
+  <dimension ref="A1:I2550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89601,6 +89601,41 @@
         <v>1529600</v>
       </c>
     </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2550" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2550" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2550" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2550" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2550" t="n">
+        <v>4742200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2550"/>
+  <dimension ref="A1:I2551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89636,6 +89636,41 @@
         <v>4742200</v>
       </c>
     </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2551" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2551" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2551" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2551" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2551" t="n">
+        <v>818400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2551"/>
+  <dimension ref="A1:I2552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89671,6 +89671,41 @@
         <v>818400</v>
       </c>
     </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2552" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2552" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2552" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2552" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2552" t="n">
+        <v>671600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2552"/>
+  <dimension ref="A1:I2553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89706,6 +89706,41 @@
         <v>671600</v>
       </c>
     </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2553" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2553" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2553" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2553" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2553" t="n">
+        <v>5181600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2553"/>
+  <dimension ref="A1:I2554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89741,6 +89741,41 @@
         <v>5181600</v>
       </c>
     </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2554" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2554" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2554" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2554" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2554" t="n">
+        <v>7875000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2554"/>
+  <dimension ref="A1:I2555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89776,6 +89776,41 @@
         <v>7875000</v>
       </c>
     </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2555" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2555" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2555" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2555" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2555" t="n">
+        <v>3110300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2555"/>
+  <dimension ref="A1:I2556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89811,6 +89811,41 @@
         <v>3110300</v>
       </c>
     </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2556" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2556" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2556" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2556" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2556" t="n">
+        <v>1029600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2556"/>
+  <dimension ref="A1:I2558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89846,6 +89846,76 @@
         <v>1029600</v>
       </c>
     </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2557" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2557" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2557" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2557" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2557" t="n">
+        <v>489400</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>AMBANK</t>
+        </is>
+      </c>
+      <c r="E2558" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F2558" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G2558" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H2558" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="I2558" t="n">
+        <v>4042100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2558"/>
+  <dimension ref="A1:I2559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89916,6 +89916,41 @@
         <v>4042100</v>
       </c>
     </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2559" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2559" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2559" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2559" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2559" t="n">
+        <v>1728100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2559"/>
+  <dimension ref="A1:I2562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89951,6 +89951,111 @@
         <v>1728100</v>
       </c>
     </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2560" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2560" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2560" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2560" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2560" t="n">
+        <v>2230300</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2561" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2561" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2561" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2561" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2561" t="n">
+        <v>1265000</v>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2562" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2562" t="n">
+        <v>2323100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2562"/>
+  <dimension ref="A1:I2563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90056,6 +90056,41 @@
         <v>2323100</v>
       </c>
     </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2563" t="n">
+        <v>743800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2563"/>
+  <dimension ref="A1:I2564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90091,6 +90091,41 @@
         <v>743800</v>
       </c>
     </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2564" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2564" t="n">
+        <v>361700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5158.xlsx
+++ b/data/5158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2564"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90126,6 +90126,111 @@
         <v>361700</v>
       </c>
     </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2565" t="n">
+        <v>3743700</v>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2566" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2566" t="n">
+        <v>3053300</v>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>TAGB</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2567" t="n">
+        <v>723100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
